--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2194.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2194.xlsx
@@ -354,7 +354,7 @@
         <v>1.945010926725893</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.798069905734605</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2194.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2194.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.06092042487012</v>
+        <v>0.9379826188087463</v>
       </c>
       <c r="B1">
-        <v>1.945010926725893</v>
+        <v>1.60292112827301</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.641695976257324</v>
       </c>
       <c r="D1">
-        <v>1.798069905734605</v>
+        <v>2.811967611312866</v>
       </c>
       <c r="E1">
-        <v>0.9900580357444081</v>
+        <v>1.520861625671387</v>
       </c>
     </row>
   </sheetData>
